--- a/Estadística Aplicada II/Base de datos/data.xlsx
+++ b/Estadística Aplicada II/Base de datos/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\Octavo Semestre\OctavoSemestre\Estadística Aplicada II\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7B00BA-E3AC-4A3A-AE38-33585BCB77AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D10C4E-BCBF-4964-8E3D-E4B8E8D21141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,810 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="272">
   <si>
-    <t>NIR 1</t>
-  </si>
-  <si>
-    <t>NIR 2</t>
-  </si>
-  <si>
-    <t>NIR 3</t>
-  </si>
-  <si>
-    <t>NIR 4</t>
-  </si>
-  <si>
-    <t>NIR 5</t>
-  </si>
-  <si>
-    <t>NIR 6</t>
-  </si>
-  <si>
-    <t>NIR 7</t>
-  </si>
-  <si>
-    <t>NIR 8</t>
-  </si>
-  <si>
-    <t>NIR 9</t>
-  </si>
-  <si>
-    <t>NIR 10</t>
-  </si>
-  <si>
-    <t>NIR 11</t>
-  </si>
-  <si>
-    <t>NIR 12</t>
-  </si>
-  <si>
-    <t>NIR 13</t>
-  </si>
-  <si>
-    <t>NIR 14</t>
-  </si>
-  <si>
-    <t>NIR 15</t>
-  </si>
-  <si>
-    <t>NIR 16</t>
-  </si>
-  <si>
-    <t>NIR 17</t>
-  </si>
-  <si>
-    <t>NIR 18</t>
-  </si>
-  <si>
-    <t>NIR 19</t>
-  </si>
-  <si>
-    <t>NIR 20</t>
-  </si>
-  <si>
-    <t>NIR 21</t>
-  </si>
-  <si>
-    <t>NIR 22</t>
-  </si>
-  <si>
-    <t>NIR 23</t>
-  </si>
-  <si>
-    <t>NIR 24</t>
-  </si>
-  <si>
-    <t>NIR 25</t>
-  </si>
-  <si>
-    <t>NIR 26</t>
-  </si>
-  <si>
-    <t>NIR 27</t>
-  </si>
-  <si>
-    <t>NIR 28</t>
-  </si>
-  <si>
-    <t>NIR 29</t>
-  </si>
-  <si>
-    <t>NIR 30</t>
-  </si>
-  <si>
-    <t>NIR 31</t>
-  </si>
-  <si>
-    <t>NIR 32</t>
-  </si>
-  <si>
-    <t>NIR 33</t>
-  </si>
-  <si>
-    <t>NIR 34</t>
-  </si>
-  <si>
-    <t>NIR 35</t>
-  </si>
-  <si>
-    <t>NIR 36</t>
-  </si>
-  <si>
-    <t>NIR 37</t>
-  </si>
-  <si>
-    <t>NIR 38</t>
-  </si>
-  <si>
-    <t>NIR 39</t>
-  </si>
-  <si>
-    <t>NIR 40</t>
-  </si>
-  <si>
-    <t>NIR 41</t>
-  </si>
-  <si>
-    <t>NIR 42</t>
-  </si>
-  <si>
-    <t>NIR 43</t>
-  </si>
-  <si>
-    <t>NIR 44</t>
-  </si>
-  <si>
-    <t>NIR 45</t>
-  </si>
-  <si>
-    <t>NIR 46</t>
-  </si>
-  <si>
-    <t>NIR 47</t>
-  </si>
-  <si>
-    <t>NIR 48</t>
-  </si>
-  <si>
-    <t>NIR 49</t>
-  </si>
-  <si>
-    <t>NIR 50</t>
-  </si>
-  <si>
-    <t>NIR 51</t>
-  </si>
-  <si>
-    <t>NIR 52</t>
-  </si>
-  <si>
-    <t>NIR 53</t>
-  </si>
-  <si>
-    <t>NIR 54</t>
-  </si>
-  <si>
-    <t>NIR 55</t>
-  </si>
-  <si>
-    <t>NIR 56</t>
-  </si>
-  <si>
-    <t>NIR 57</t>
-  </si>
-  <si>
-    <t>NIR 58</t>
-  </si>
-  <si>
-    <t>NIR 59</t>
-  </si>
-  <si>
-    <t>NIR 60</t>
-  </si>
-  <si>
-    <t>NIR 61</t>
-  </si>
-  <si>
-    <t>NIR 62</t>
-  </si>
-  <si>
-    <t>NIR 63</t>
-  </si>
-  <si>
-    <t>NIR 64</t>
-  </si>
-  <si>
-    <t>NIR 65</t>
-  </si>
-  <si>
-    <t>NIR 66</t>
-  </si>
-  <si>
-    <t>NIR 67</t>
-  </si>
-  <si>
-    <t>NIR 68</t>
-  </si>
-  <si>
-    <t>NIR 69</t>
-  </si>
-  <si>
-    <t>NIR 70</t>
-  </si>
-  <si>
-    <t>NIR 71</t>
-  </si>
-  <si>
-    <t>NIR 72</t>
-  </si>
-  <si>
-    <t>NIR 73</t>
-  </si>
-  <si>
-    <t>NIR 74</t>
-  </si>
-  <si>
-    <t>NIR 75</t>
-  </si>
-  <si>
-    <t>NIR 76</t>
-  </si>
-  <si>
-    <t>NIR 77</t>
-  </si>
-  <si>
-    <t>NIR 78</t>
-  </si>
-  <si>
-    <t>NIR 79</t>
-  </si>
-  <si>
-    <t>NIR 80</t>
-  </si>
-  <si>
-    <t>NIR 81</t>
-  </si>
-  <si>
-    <t>NIR 82</t>
-  </si>
-  <si>
-    <t>NIR 83</t>
-  </si>
-  <si>
-    <t>NIR 84</t>
-  </si>
-  <si>
-    <t>NIR 85</t>
-  </si>
-  <si>
-    <t>NIR 86</t>
-  </si>
-  <si>
-    <t>NIR 87</t>
-  </si>
-  <si>
-    <t>NIR 88</t>
-  </si>
-  <si>
-    <t>NIR 89</t>
-  </si>
-  <si>
-    <t>NIR 90</t>
-  </si>
-  <si>
-    <t>NIR 91</t>
-  </si>
-  <si>
-    <t>NIR 92</t>
-  </si>
-  <si>
-    <t>NIR 93</t>
-  </si>
-  <si>
-    <t>NIR 94</t>
-  </si>
-  <si>
-    <t>NIR 95</t>
-  </si>
-  <si>
-    <t>NIR 96</t>
-  </si>
-  <si>
-    <t>NIR 97</t>
-  </si>
-  <si>
-    <t>NIR 98</t>
-  </si>
-  <si>
-    <t>NIR 99</t>
-  </si>
-  <si>
-    <t>NIR 100</t>
-  </si>
-  <si>
-    <t>NIR 101</t>
-  </si>
-  <si>
-    <t>NIR 102</t>
-  </si>
-  <si>
-    <t>NIR 103</t>
-  </si>
-  <si>
-    <t>NIR 104</t>
-  </si>
-  <si>
-    <t>NIR 105</t>
-  </si>
-  <si>
-    <t>NIR 106</t>
-  </si>
-  <si>
-    <t>NIR 107</t>
-  </si>
-  <si>
-    <t>NIR 108</t>
-  </si>
-  <si>
-    <t>NIR 109</t>
-  </si>
-  <si>
-    <t>NIR 110</t>
-  </si>
-  <si>
-    <t>NIR 111</t>
-  </si>
-  <si>
-    <t>NIR 112</t>
-  </si>
-  <si>
-    <t>NIR 113</t>
-  </si>
-  <si>
-    <t>NIR 114</t>
-  </si>
-  <si>
-    <t>NIR 115</t>
-  </si>
-  <si>
-    <t>NIR 116</t>
-  </si>
-  <si>
-    <t>NIR 117</t>
-  </si>
-  <si>
-    <t>NIR 118</t>
-  </si>
-  <si>
-    <t>NIR 119</t>
-  </si>
-  <si>
-    <t>NIR 120</t>
-  </si>
-  <si>
-    <t>NIR 121</t>
-  </si>
-  <si>
-    <t>NIR 122</t>
-  </si>
-  <si>
-    <t>NIR 123</t>
-  </si>
-  <si>
-    <t>NIR 124</t>
-  </si>
-  <si>
-    <t>NIR 125</t>
-  </si>
-  <si>
-    <t>NIR 126</t>
-  </si>
-  <si>
-    <t>NIR 127</t>
-  </si>
-  <si>
-    <t>NIR 128</t>
-  </si>
-  <si>
-    <t>NIR 129</t>
-  </si>
-  <si>
-    <t>NIR 130</t>
-  </si>
-  <si>
-    <t>NIR 131</t>
-  </si>
-  <si>
-    <t>NIR 132</t>
-  </si>
-  <si>
-    <t>NIR 133</t>
-  </si>
-  <si>
-    <t>NIR 134</t>
-  </si>
-  <si>
-    <t>NIR 135</t>
-  </si>
-  <si>
-    <t>NIR 136</t>
-  </si>
-  <si>
-    <t>NIR 137</t>
-  </si>
-  <si>
-    <t>NIR 138</t>
-  </si>
-  <si>
-    <t>NIR 139</t>
-  </si>
-  <si>
-    <t>NIR 140</t>
-  </si>
-  <si>
-    <t>NIR 141</t>
-  </si>
-  <si>
-    <t>NIR 142</t>
-  </si>
-  <si>
-    <t>NIR 143</t>
-  </si>
-  <si>
-    <t>NIR 144</t>
-  </si>
-  <si>
-    <t>NIR 145</t>
-  </si>
-  <si>
-    <t>NIR 146</t>
-  </si>
-  <si>
-    <t>NIR 147</t>
-  </si>
-  <si>
-    <t>NIR 148</t>
-  </si>
-  <si>
-    <t>NIR 149</t>
-  </si>
-  <si>
-    <t>NIR 150</t>
-  </si>
-  <si>
-    <t>NIR 151</t>
-  </si>
-  <si>
-    <t>NIR 152</t>
-  </si>
-  <si>
-    <t>NIR 153</t>
-  </si>
-  <si>
-    <t>NIR 154</t>
-  </si>
-  <si>
-    <t>NIR 155</t>
-  </si>
-  <si>
-    <t>NIR 156</t>
-  </si>
-  <si>
-    <t>NIR 157</t>
-  </si>
-  <si>
-    <t>NIR 158</t>
-  </si>
-  <si>
-    <t>NIR 159</t>
-  </si>
-  <si>
-    <t>NIR 160</t>
-  </si>
-  <si>
-    <t>NIR 161</t>
-  </si>
-  <si>
-    <t>NIR 162</t>
-  </si>
-  <si>
-    <t>NIR 163</t>
-  </si>
-  <si>
-    <t>NIR 164</t>
-  </si>
-  <si>
-    <t>NIR 165</t>
-  </si>
-  <si>
-    <t>NIR 166</t>
-  </si>
-  <si>
-    <t>NIR 167</t>
-  </si>
-  <si>
-    <t>NIR 168</t>
-  </si>
-  <si>
-    <t>NIR 169</t>
-  </si>
-  <si>
-    <t>NIR 170</t>
-  </si>
-  <si>
-    <t>NIR 171</t>
-  </si>
-  <si>
-    <t>NIR 172</t>
-  </si>
-  <si>
-    <t>NIR 173</t>
-  </si>
-  <si>
-    <t>NIR 174</t>
-  </si>
-  <si>
-    <t>NIR 175</t>
-  </si>
-  <si>
-    <t>NIR 176</t>
-  </si>
-  <si>
-    <t>NIR 177</t>
-  </si>
-  <si>
-    <t>NIR 178</t>
-  </si>
-  <si>
-    <t>NIR 179</t>
-  </si>
-  <si>
-    <t>NIR 180</t>
-  </si>
-  <si>
-    <t>NIR 181</t>
-  </si>
-  <si>
-    <t>NIR 182</t>
-  </si>
-  <si>
-    <t>NIR 183</t>
-  </si>
-  <si>
-    <t>NIR 184</t>
-  </si>
-  <si>
-    <t>NIR 185</t>
-  </si>
-  <si>
-    <t>NIR 186</t>
-  </si>
-  <si>
-    <t>NIR 187</t>
-  </si>
-  <si>
-    <t>NIR 188</t>
-  </si>
-  <si>
-    <t>NIR 189</t>
-  </si>
-  <si>
-    <t>NIR 190</t>
-  </si>
-  <si>
-    <t>NIR 191</t>
-  </si>
-  <si>
-    <t>NIR 192</t>
-  </si>
-  <si>
-    <t>NIR 193</t>
-  </si>
-  <si>
-    <t>NIR 194</t>
-  </si>
-  <si>
-    <t>NIR 195</t>
-  </si>
-  <si>
-    <t>NIR 196</t>
-  </si>
-  <si>
-    <t>NIR 197</t>
-  </si>
-  <si>
-    <t>NIR 198</t>
-  </si>
-  <si>
-    <t>NIR 199</t>
-  </si>
-  <si>
-    <t>NIR 200</t>
-  </si>
-  <si>
-    <t>NIR 201</t>
-  </si>
-  <si>
-    <t>NIR 202</t>
-  </si>
-  <si>
-    <t>NIR 203</t>
-  </si>
-  <si>
-    <t>NIR 204</t>
-  </si>
-  <si>
-    <t>NIR 205</t>
-  </si>
-  <si>
-    <t>NIR 206</t>
-  </si>
-  <si>
-    <t>NIR 207</t>
-  </si>
-  <si>
-    <t>NIR 208</t>
-  </si>
-  <si>
-    <t>NIR 209</t>
-  </si>
-  <si>
-    <t>NIR 210</t>
-  </si>
-  <si>
-    <t>NIR 211</t>
-  </si>
-  <si>
-    <t>NIR 212</t>
-  </si>
-  <si>
-    <t>NIR 213</t>
-  </si>
-  <si>
-    <t>NIR 214</t>
-  </si>
-  <si>
-    <t>NIR 215</t>
-  </si>
-  <si>
-    <t>NIR 216</t>
-  </si>
-  <si>
-    <t>NIR 217</t>
-  </si>
-  <si>
-    <t>NIR 218</t>
-  </si>
-  <si>
-    <t>NIR 219</t>
-  </si>
-  <si>
-    <t>NIR 220</t>
-  </si>
-  <si>
-    <t>NIR 221</t>
-  </si>
-  <si>
-    <t>NIR 222</t>
-  </si>
-  <si>
-    <t>NIR 223</t>
-  </si>
-  <si>
-    <t>NIR 224</t>
-  </si>
-  <si>
-    <t>NIR 225</t>
-  </si>
-  <si>
-    <t>NIR 226</t>
-  </si>
-  <si>
-    <t>NIR 227</t>
-  </si>
-  <si>
-    <t>NIR 228</t>
-  </si>
-  <si>
-    <t>NIR 229</t>
-  </si>
-  <si>
-    <t>NIR 230</t>
-  </si>
-  <si>
-    <t>NIR 231</t>
-  </si>
-  <si>
-    <t>NIR 232</t>
-  </si>
-  <si>
-    <t>NIR 233</t>
-  </si>
-  <si>
-    <t>NIR 234</t>
-  </si>
-  <si>
-    <t>NIR 235</t>
-  </si>
-  <si>
-    <t>NIR 236</t>
-  </si>
-  <si>
-    <t>NIR 237</t>
-  </si>
-  <si>
-    <t>NIR 238</t>
-  </si>
-  <si>
-    <t>NIR 239</t>
-  </si>
-  <si>
-    <t>NIR 240</t>
-  </si>
-  <si>
-    <t>NIR 241</t>
-  </si>
-  <si>
-    <t>NIR 242</t>
-  </si>
-  <si>
-    <t>NIR 243</t>
-  </si>
-  <si>
-    <t>NIR 244</t>
-  </si>
-  <si>
-    <t>NIR 245</t>
-  </si>
-  <si>
-    <t>NIR 246</t>
-  </si>
-  <si>
-    <t>NIR 247</t>
-  </si>
-  <si>
-    <t>NIR 248</t>
-  </si>
-  <si>
-    <t>NIR 249</t>
-  </si>
-  <si>
-    <t>NIR 250</t>
-  </si>
-  <si>
-    <t>NIR 251</t>
-  </si>
-  <si>
-    <t>NIR 252</t>
-  </si>
-  <si>
-    <t>NIR 253</t>
-  </si>
-  <si>
-    <t>NIR 254</t>
-  </si>
-  <si>
-    <t>NIR 255</t>
-  </si>
-  <si>
-    <t>NIR 256</t>
-  </si>
-  <si>
-    <t>NIR 257</t>
-  </si>
-  <si>
-    <t>NIR 258</t>
-  </si>
-  <si>
-    <t>NIR 259</t>
-  </si>
-  <si>
-    <t>NIR 260</t>
-  </si>
-  <si>
-    <t>NIR 261</t>
-  </si>
-  <si>
-    <t>NIR 262</t>
-  </si>
-  <si>
-    <t>NIR 263</t>
-  </si>
-  <si>
-    <t>NIR 264</t>
-  </si>
-  <si>
-    <t>NIR 265</t>
-  </si>
-  <si>
-    <t>NIR 266</t>
-  </si>
-  <si>
-    <t>NIR 267</t>
-  </si>
-  <si>
-    <t>NIR 268</t>
-  </si>
-  <si>
     <t>density</t>
   </si>
   <si>
@@ -836,13 +32,817 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>NIR1</t>
+  </si>
+  <si>
+    <t>NIR2</t>
+  </si>
+  <si>
+    <t>NIR3</t>
+  </si>
+  <si>
+    <t>NIR4</t>
+  </si>
+  <si>
+    <t>NIR5</t>
+  </si>
+  <si>
+    <t>NIR6</t>
+  </si>
+  <si>
+    <t>NIR7</t>
+  </si>
+  <si>
+    <t>NIR8</t>
+  </si>
+  <si>
+    <t>NIR9</t>
+  </si>
+  <si>
+    <t>NIR10</t>
+  </si>
+  <si>
+    <t>NIR11</t>
+  </si>
+  <si>
+    <t>NIR12</t>
+  </si>
+  <si>
+    <t>NIR13</t>
+  </si>
+  <si>
+    <t>NIR14</t>
+  </si>
+  <si>
+    <t>NIR15</t>
+  </si>
+  <si>
+    <t>NIR16</t>
+  </si>
+  <si>
+    <t>NIR17</t>
+  </si>
+  <si>
+    <t>NIR18</t>
+  </si>
+  <si>
+    <t>NIR19</t>
+  </si>
+  <si>
+    <t>NIR20</t>
+  </si>
+  <si>
+    <t>NIR21</t>
+  </si>
+  <si>
+    <t>NIR22</t>
+  </si>
+  <si>
+    <t>NIR23</t>
+  </si>
+  <si>
+    <t>NIR24</t>
+  </si>
+  <si>
+    <t>NIR25</t>
+  </si>
+  <si>
+    <t>NIR26</t>
+  </si>
+  <si>
+    <t>NIR27</t>
+  </si>
+  <si>
+    <t>NIR28</t>
+  </si>
+  <si>
+    <t>NIR29</t>
+  </si>
+  <si>
+    <t>NIR30</t>
+  </si>
+  <si>
+    <t>NIR31</t>
+  </si>
+  <si>
+    <t>NIR32</t>
+  </si>
+  <si>
+    <t>NIR33</t>
+  </si>
+  <si>
+    <t>NIR34</t>
+  </si>
+  <si>
+    <t>NIR35</t>
+  </si>
+  <si>
+    <t>NIR36</t>
+  </si>
+  <si>
+    <t>NIR37</t>
+  </si>
+  <si>
+    <t>NIR38</t>
+  </si>
+  <si>
+    <t>NIR39</t>
+  </si>
+  <si>
+    <t>NIR40</t>
+  </si>
+  <si>
+    <t>NIR41</t>
+  </si>
+  <si>
+    <t>NIR42</t>
+  </si>
+  <si>
+    <t>NIR43</t>
+  </si>
+  <si>
+    <t>NIR44</t>
+  </si>
+  <si>
+    <t>NIR45</t>
+  </si>
+  <si>
+    <t>NIR46</t>
+  </si>
+  <si>
+    <t>NIR47</t>
+  </si>
+  <si>
+    <t>NIR48</t>
+  </si>
+  <si>
+    <t>NIR49</t>
+  </si>
+  <si>
+    <t>NIR50</t>
+  </si>
+  <si>
+    <t>NIR51</t>
+  </si>
+  <si>
+    <t>NIR52</t>
+  </si>
+  <si>
+    <t>NIR53</t>
+  </si>
+  <si>
+    <t>NIR54</t>
+  </si>
+  <si>
+    <t>NIR55</t>
+  </si>
+  <si>
+    <t>NIR56</t>
+  </si>
+  <si>
+    <t>NIR57</t>
+  </si>
+  <si>
+    <t>NIR58</t>
+  </si>
+  <si>
+    <t>NIR59</t>
+  </si>
+  <si>
+    <t>NIR60</t>
+  </si>
+  <si>
+    <t>NIR61</t>
+  </si>
+  <si>
+    <t>NIR62</t>
+  </si>
+  <si>
+    <t>NIR63</t>
+  </si>
+  <si>
+    <t>NIR64</t>
+  </si>
+  <si>
+    <t>NIR65</t>
+  </si>
+  <si>
+    <t>NIR66</t>
+  </si>
+  <si>
+    <t>NIR67</t>
+  </si>
+  <si>
+    <t>NIR68</t>
+  </si>
+  <si>
+    <t>NIR69</t>
+  </si>
+  <si>
+    <t>NIR70</t>
+  </si>
+  <si>
+    <t>NIR71</t>
+  </si>
+  <si>
+    <t>NIR72</t>
+  </si>
+  <si>
+    <t>NIR73</t>
+  </si>
+  <si>
+    <t>NIR74</t>
+  </si>
+  <si>
+    <t>NIR75</t>
+  </si>
+  <si>
+    <t>NIR76</t>
+  </si>
+  <si>
+    <t>NIR77</t>
+  </si>
+  <si>
+    <t>NIR78</t>
+  </si>
+  <si>
+    <t>NIR79</t>
+  </si>
+  <si>
+    <t>NIR80</t>
+  </si>
+  <si>
+    <t>NIR81</t>
+  </si>
+  <si>
+    <t>NIR82</t>
+  </si>
+  <si>
+    <t>NIR83</t>
+  </si>
+  <si>
+    <t>NIR84</t>
+  </si>
+  <si>
+    <t>NIR85</t>
+  </si>
+  <si>
+    <t>NIR86</t>
+  </si>
+  <si>
+    <t>NIR87</t>
+  </si>
+  <si>
+    <t>NIR88</t>
+  </si>
+  <si>
+    <t>NIR89</t>
+  </si>
+  <si>
+    <t>NIR90</t>
+  </si>
+  <si>
+    <t>NIR91</t>
+  </si>
+  <si>
+    <t>NIR92</t>
+  </si>
+  <si>
+    <t>NIR93</t>
+  </si>
+  <si>
+    <t>NIR94</t>
+  </si>
+  <si>
+    <t>NIR95</t>
+  </si>
+  <si>
+    <t>NIR96</t>
+  </si>
+  <si>
+    <t>NIR97</t>
+  </si>
+  <si>
+    <t>NIR98</t>
+  </si>
+  <si>
+    <t>NIR99</t>
+  </si>
+  <si>
+    <t>NIR100</t>
+  </si>
+  <si>
+    <t>NIR101</t>
+  </si>
+  <si>
+    <t>NIR102</t>
+  </si>
+  <si>
+    <t>NIR103</t>
+  </si>
+  <si>
+    <t>NIR104</t>
+  </si>
+  <si>
+    <t>NIR105</t>
+  </si>
+  <si>
+    <t>NIR106</t>
+  </si>
+  <si>
+    <t>NIR107</t>
+  </si>
+  <si>
+    <t>NIR108</t>
+  </si>
+  <si>
+    <t>NIR109</t>
+  </si>
+  <si>
+    <t>NIR110</t>
+  </si>
+  <si>
+    <t>NIR111</t>
+  </si>
+  <si>
+    <t>NIR112</t>
+  </si>
+  <si>
+    <t>NIR113</t>
+  </si>
+  <si>
+    <t>NIR114</t>
+  </si>
+  <si>
+    <t>NIR115</t>
+  </si>
+  <si>
+    <t>NIR116</t>
+  </si>
+  <si>
+    <t>NIR117</t>
+  </si>
+  <si>
+    <t>NIR118</t>
+  </si>
+  <si>
+    <t>NIR119</t>
+  </si>
+  <si>
+    <t>NIR120</t>
+  </si>
+  <si>
+    <t>NIR121</t>
+  </si>
+  <si>
+    <t>NIR122</t>
+  </si>
+  <si>
+    <t>NIR123</t>
+  </si>
+  <si>
+    <t>NIR124</t>
+  </si>
+  <si>
+    <t>NIR125</t>
+  </si>
+  <si>
+    <t>NIR126</t>
+  </si>
+  <si>
+    <t>NIR127</t>
+  </si>
+  <si>
+    <t>NIR128</t>
+  </si>
+  <si>
+    <t>NIR129</t>
+  </si>
+  <si>
+    <t>NIR130</t>
+  </si>
+  <si>
+    <t>NIR131</t>
+  </si>
+  <si>
+    <t>NIR132</t>
+  </si>
+  <si>
+    <t>NIR133</t>
+  </si>
+  <si>
+    <t>NIR134</t>
+  </si>
+  <si>
+    <t>NIR135</t>
+  </si>
+  <si>
+    <t>NIR136</t>
+  </si>
+  <si>
+    <t>NIR137</t>
+  </si>
+  <si>
+    <t>NIR138</t>
+  </si>
+  <si>
+    <t>NIR139</t>
+  </si>
+  <si>
+    <t>NIR140</t>
+  </si>
+  <si>
+    <t>NIR141</t>
+  </si>
+  <si>
+    <t>NIR142</t>
+  </si>
+  <si>
+    <t>NIR143</t>
+  </si>
+  <si>
+    <t>NIR144</t>
+  </si>
+  <si>
+    <t>NIR145</t>
+  </si>
+  <si>
+    <t>NIR146</t>
+  </si>
+  <si>
+    <t>NIR147</t>
+  </si>
+  <si>
+    <t>NIR148</t>
+  </si>
+  <si>
+    <t>NIR149</t>
+  </si>
+  <si>
+    <t>NIR150</t>
+  </si>
+  <si>
+    <t>NIR151</t>
+  </si>
+  <si>
+    <t>NIR152</t>
+  </si>
+  <si>
+    <t>NIR153</t>
+  </si>
+  <si>
+    <t>NIR154</t>
+  </si>
+  <si>
+    <t>NIR155</t>
+  </si>
+  <si>
+    <t>NIR156</t>
+  </si>
+  <si>
+    <t>NIR157</t>
+  </si>
+  <si>
+    <t>NIR158</t>
+  </si>
+  <si>
+    <t>NIR159</t>
+  </si>
+  <si>
+    <t>NIR160</t>
+  </si>
+  <si>
+    <t>NIR161</t>
+  </si>
+  <si>
+    <t>NIR162</t>
+  </si>
+  <si>
+    <t>NIR163</t>
+  </si>
+  <si>
+    <t>NIR164</t>
+  </si>
+  <si>
+    <t>NIR165</t>
+  </si>
+  <si>
+    <t>NIR166</t>
+  </si>
+  <si>
+    <t>NIR167</t>
+  </si>
+  <si>
+    <t>NIR168</t>
+  </si>
+  <si>
+    <t>NIR169</t>
+  </si>
+  <si>
+    <t>NIR170</t>
+  </si>
+  <si>
+    <t>NIR171</t>
+  </si>
+  <si>
+    <t>NIR172</t>
+  </si>
+  <si>
+    <t>NIR173</t>
+  </si>
+  <si>
+    <t>NIR174</t>
+  </si>
+  <si>
+    <t>NIR175</t>
+  </si>
+  <si>
+    <t>NIR176</t>
+  </si>
+  <si>
+    <t>NIR177</t>
+  </si>
+  <si>
+    <t>NIR178</t>
+  </si>
+  <si>
+    <t>NIR179</t>
+  </si>
+  <si>
+    <t>NIR180</t>
+  </si>
+  <si>
+    <t>NIR181</t>
+  </si>
+  <si>
+    <t>NIR182</t>
+  </si>
+  <si>
+    <t>NIR183</t>
+  </si>
+  <si>
+    <t>NIR184</t>
+  </si>
+  <si>
+    <t>NIR185</t>
+  </si>
+  <si>
+    <t>NIR186</t>
+  </si>
+  <si>
+    <t>NIR187</t>
+  </si>
+  <si>
+    <t>NIR188</t>
+  </si>
+  <si>
+    <t>NIR189</t>
+  </si>
+  <si>
+    <t>NIR190</t>
+  </si>
+  <si>
+    <t>NIR191</t>
+  </si>
+  <si>
+    <t>NIR192</t>
+  </si>
+  <si>
+    <t>NIR193</t>
+  </si>
+  <si>
+    <t>NIR194</t>
+  </si>
+  <si>
+    <t>NIR195</t>
+  </si>
+  <si>
+    <t>NIR196</t>
+  </si>
+  <si>
+    <t>NIR197</t>
+  </si>
+  <si>
+    <t>NIR198</t>
+  </si>
+  <si>
+    <t>NIR199</t>
+  </si>
+  <si>
+    <t>NIR200</t>
+  </si>
+  <si>
+    <t>NIR201</t>
+  </si>
+  <si>
+    <t>NIR202</t>
+  </si>
+  <si>
+    <t>NIR203</t>
+  </si>
+  <si>
+    <t>NIR204</t>
+  </si>
+  <si>
+    <t>NIR205</t>
+  </si>
+  <si>
+    <t>NIR206</t>
+  </si>
+  <si>
+    <t>NIR207</t>
+  </si>
+  <si>
+    <t>NIR208</t>
+  </si>
+  <si>
+    <t>NIR209</t>
+  </si>
+  <si>
+    <t>NIR210</t>
+  </si>
+  <si>
+    <t>NIR211</t>
+  </si>
+  <si>
+    <t>NIR212</t>
+  </si>
+  <si>
+    <t>NIR213</t>
+  </si>
+  <si>
+    <t>NIR214</t>
+  </si>
+  <si>
+    <t>NIR215</t>
+  </si>
+  <si>
+    <t>NIR216</t>
+  </si>
+  <si>
+    <t>NIR217</t>
+  </si>
+  <si>
+    <t>NIR218</t>
+  </si>
+  <si>
+    <t>NIR219</t>
+  </si>
+  <si>
+    <t>NIR220</t>
+  </si>
+  <si>
+    <t>NIR221</t>
+  </si>
+  <si>
+    <t>NIR222</t>
+  </si>
+  <si>
+    <t>NIR223</t>
+  </si>
+  <si>
+    <t>NIR224</t>
+  </si>
+  <si>
+    <t>NIR225</t>
+  </si>
+  <si>
+    <t>NIR226</t>
+  </si>
+  <si>
+    <t>NIR227</t>
+  </si>
+  <si>
+    <t>NIR228</t>
+  </si>
+  <si>
+    <t>NIR229</t>
+  </si>
+  <si>
+    <t>NIR230</t>
+  </si>
+  <si>
+    <t>NIR231</t>
+  </si>
+  <si>
+    <t>NIR232</t>
+  </si>
+  <si>
+    <t>NIR233</t>
+  </si>
+  <si>
+    <t>NIR234</t>
+  </si>
+  <si>
+    <t>NIR235</t>
+  </si>
+  <si>
+    <t>NIR236</t>
+  </si>
+  <si>
+    <t>NIR237</t>
+  </si>
+  <si>
+    <t>NIR238</t>
+  </si>
+  <si>
+    <t>NIR239</t>
+  </si>
+  <si>
+    <t>NIR240</t>
+  </si>
+  <si>
+    <t>NIR241</t>
+  </si>
+  <si>
+    <t>NIR242</t>
+  </si>
+  <si>
+    <t>NIR243</t>
+  </si>
+  <si>
+    <t>NIR244</t>
+  </si>
+  <si>
+    <t>NIR245</t>
+  </si>
+  <si>
+    <t>NIR246</t>
+  </si>
+  <si>
+    <t>NIR247</t>
+  </si>
+  <si>
+    <t>NIR248</t>
+  </si>
+  <si>
+    <t>NIR249</t>
+  </si>
+  <si>
+    <t>NIR250</t>
+  </si>
+  <si>
+    <t>NIR251</t>
+  </si>
+  <si>
+    <t>NIR252</t>
+  </si>
+  <si>
+    <t>NIR253</t>
+  </si>
+  <si>
+    <t>NIR254</t>
+  </si>
+  <si>
+    <t>NIR255</t>
+  </si>
+  <si>
+    <t>NIR256</t>
+  </si>
+  <si>
+    <t>NIR257</t>
+  </si>
+  <si>
+    <t>NIR258</t>
+  </si>
+  <si>
+    <t>NIR259</t>
+  </si>
+  <si>
+    <t>NIR260</t>
+  </si>
+  <si>
+    <t>NIR261</t>
+  </si>
+  <si>
+    <t>NIR262</t>
+  </si>
+  <si>
+    <t>NIR263</t>
+  </si>
+  <si>
+    <t>NIR264</t>
+  </si>
+  <si>
+    <t>NIR265</t>
+  </si>
+  <si>
+    <t>NIR266</t>
+  </si>
+  <si>
+    <t>NIR267</t>
+  </si>
+  <si>
+    <t>NIR268</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,6 +973,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1675,823 +1681,825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="IX1" workbookViewId="0">
+      <selection activeCell="JI4" sqref="JI4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>136</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>150</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>151</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>152</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>157</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>158</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>233</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>234</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>235</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>236</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>240</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>245</v>
+      </c>
+      <c r="II1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>259</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>260</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>261</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>262</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JI1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="JJ1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JC1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JG1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JI1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:270" x14ac:dyDescent="0.25">
@@ -3303,7 +3311,7 @@
         <v>100</v>
       </c>
       <c r="JJ2" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:270" x14ac:dyDescent="0.25">
@@ -4115,7 +4123,7 @@
         <v>80.22</v>
       </c>
       <c r="JJ3" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:270" x14ac:dyDescent="0.25">
@@ -4927,7 +4935,7 @@
         <v>79.489999999999995</v>
       </c>
       <c r="JJ4" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:270" x14ac:dyDescent="0.25">
@@ -5739,7 +5747,7 @@
         <v>60.8</v>
       </c>
       <c r="JJ5" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:270" x14ac:dyDescent="0.25">
@@ -6551,7 +6559,7 @@
         <v>59.97</v>
       </c>
       <c r="JJ6" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:270" x14ac:dyDescent="0.25">
@@ -7363,7 +7371,7 @@
         <v>60.48</v>
       </c>
       <c r="JJ7" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:270" x14ac:dyDescent="0.25">
@@ -8175,7 +8183,7 @@
         <v>40.1</v>
       </c>
       <c r="JJ8" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:270" x14ac:dyDescent="0.25">
@@ -8987,7 +8995,7 @@
         <v>40</v>
       </c>
       <c r="JJ9" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:270" x14ac:dyDescent="0.25">
@@ -9799,7 +9807,7 @@
         <v>41.22</v>
       </c>
       <c r="JJ10" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:270" x14ac:dyDescent="0.25">
@@ -10611,7 +10619,7 @@
         <v>41.16</v>
       </c>
       <c r="JJ11" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:270" x14ac:dyDescent="0.25">
@@ -11423,7 +11431,7 @@
         <v>20.53</v>
       </c>
       <c r="JJ12" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:270" x14ac:dyDescent="0.25">
@@ -12235,7 +12243,7 @@
         <v>20.350000000000001</v>
       </c>
       <c r="JJ13" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:270" x14ac:dyDescent="0.25">
@@ -13047,7 +13055,7 @@
         <v>20.329999999999998</v>
       </c>
       <c r="JJ14" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:270" x14ac:dyDescent="0.25">
@@ -13859,7 +13867,7 @@
         <v>20.61</v>
       </c>
       <c r="JJ15" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:270" x14ac:dyDescent="0.25">
@@ -14671,7 +14679,7 @@
         <v>20.76</v>
       </c>
       <c r="JJ16" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:270" x14ac:dyDescent="0.25">
@@ -15483,7 +15491,7 @@
         <v>0</v>
       </c>
       <c r="JJ17" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:270" x14ac:dyDescent="0.25">
@@ -16295,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="JJ18" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:270" x14ac:dyDescent="0.25">
@@ -17107,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="JJ19" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:270" x14ac:dyDescent="0.25">
@@ -17919,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="JJ20" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:270" x14ac:dyDescent="0.25">
@@ -18731,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="JJ21" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:270" x14ac:dyDescent="0.25">
@@ -19543,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="JJ22" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:270" x14ac:dyDescent="0.25">
@@ -20355,7 +20363,7 @@
         <v>51.04</v>
       </c>
       <c r="JJ23" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:270" x14ac:dyDescent="0.25">
@@ -21167,7 +21175,7 @@
         <v>50.32</v>
       </c>
       <c r="JJ24" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:270" x14ac:dyDescent="0.25">
@@ -21979,7 +21987,7 @@
         <v>32.14</v>
       </c>
       <c r="JJ25" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:270" x14ac:dyDescent="0.25">
@@ -22791,7 +22799,7 @@
         <v>34.69</v>
       </c>
       <c r="JJ26" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:270" x14ac:dyDescent="0.25">
@@ -23603,7 +23611,7 @@
         <v>30.3</v>
       </c>
       <c r="JJ27" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:270" x14ac:dyDescent="0.25">
@@ -24415,7 +24423,7 @@
         <v>20.45</v>
       </c>
       <c r="JJ28" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:270" x14ac:dyDescent="0.25">
@@ -25227,10 +25235,11 @@
         <v>20.059999999999999</v>
       </c>
       <c r="JJ29" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>